--- a/mid_poster/gant_chart.xlsx
+++ b/mid_poster/gant_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koichiro/University/research/Graduation_Research/mid_poster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EF0D9-E12B-A441-8B68-EC555E70DF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F4440-8596-6B48-96DA-1482102047F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="2900" windowWidth="24160" windowHeight="16920" xr2:uid="{FD3B7E16-AFC2-0048-AE7F-BCE8A96C8013}"/>
+    <workbookView xWindow="4340" yWindow="460" windowWidth="24160" windowHeight="16880" xr2:uid="{FD3B7E16-AFC2-0048-AE7F-BCE8A96C8013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,13 +129,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -474,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553CAF7D-3DA2-2E40-BBE4-5AE0CDA75309}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -562,7 +576,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -573,7 +587,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -583,7 +597,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3"/>
@@ -594,7 +608,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3"/>
@@ -603,6 +617,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
